--- a/RunningYOLO/users.xlsx
+++ b/RunningYOLO/users.xlsx
@@ -2,26 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="newUser" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1974355978" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="593336868" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="705794851" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="5188472502" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="593336868" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="705794851" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="5188472502" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1974355978" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -32,19 +36,8 @@
     <font>
       <name val="Arial"/>
       <charset val="204"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="0"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -58,34 +51,35 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom>
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,6 +89,7 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -177,10 +172,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -212,69 +207,11 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="Times New Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,162 +381,121 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="1:1048576"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.4"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="2">
-      <c r="A1" s="3" t="n">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="2">
-      <c r="A4" s="3" t="n">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="2">
-      <c r="A5" s="3" t="n">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="2">
-      <c r="A6" s="3" t="n">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="2">
-      <c r="A7" s="3" t="n">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="2">
-      <c r="A8" s="3" t="n">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="2">
-      <c r="A9" s="3" t="n">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="2"/>
-    <row r="2" ht="13.5" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>adf</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>efs</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="2">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>hts</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>rgdg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="2">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>ghrsgsr</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>tsdhtr</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="2">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>M_Kolomenskaya1</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>M_Kolomenskaya1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="2"/>
-    <row r="8" ht="13.5" customHeight="1" s="2"/>
-    <row r="9" ht="13.5" customHeight="1" s="2"/>
-    <row r="10" ht="13.5" customHeight="1" s="2"/>
-    <row r="11" ht="13.5" customHeight="1" s="2"/>
-    <row r="12" ht="13.5" customHeight="1" s="2"/>
-    <row r="13" ht="13.5" customHeight="1" s="2"/>
-    <row r="14" ht="13.5" customHeight="1" s="2"/>
-    <row r="15" ht="13.5" customHeight="1" s="2"/>
-    <row r="16" ht="13.5" customHeight="1" s="2"/>
-    <row r="17" ht="13.5" customHeight="1" s="2"/>
-  </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
 </worksheet>
 </file>
 
@@ -611,13 +507,14 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
 </worksheet>
 </file>
 
@@ -629,13 +526,14 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
 </worksheet>
 </file>
 
